--- a/一体站项目 - V4质控/API/Alarm interface/仪器报警映射表.xlsx
+++ b/一体站项目 - V4质控/API/Alarm interface/仪器报警映射表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\报警接口\Alarm-interface\Alarm interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709D6D3A-46D1-48A5-8ADC-81CC2A58506F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2A6DEA-9B47-45FB-890F-60AD4B00B27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="37980" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="242">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -674,10 +674,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>采配水单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>动力环境监测单元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -773,6 +769,30 @@
   </si>
   <si>
     <t>V1,V2,V3,V4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采配水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V,G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁传感器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门告警</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODMn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODcr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1126,11 +1146,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J310"/>
+  <dimension ref="A1:J312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M272" sqref="M272"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1154,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1166,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -1819,7 +1839,7 @@
         <v>999</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3889,7 +3909,7 @@
         <v>999</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -3897,7 +3917,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>119</v>
@@ -3920,7 +3940,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>119</v>
@@ -3943,7 +3963,7 @@
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>119</v>
@@ -3966,7 +3986,7 @@
         <v>118</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>119</v>
@@ -3989,7 +4009,7 @@
         <v>118</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>119</v>
@@ -4012,7 +4032,7 @@
         <v>118</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>124</v>
@@ -4035,7 +4055,7 @@
         <v>118</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>124</v>
@@ -4058,7 +4078,7 @@
         <v>118</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>10</v>
@@ -4081,7 +4101,7 @@
         <v>118</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>10</v>
@@ -4104,7 +4124,7 @@
         <v>118</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>10</v>
@@ -4127,7 +4147,7 @@
         <v>118</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>10</v>
@@ -4150,7 +4170,7 @@
         <v>118</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>10</v>
@@ -4173,7 +4193,7 @@
         <v>118</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>10</v>
@@ -4196,7 +4216,7 @@
         <v>118</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>10</v>
@@ -4219,7 +4239,7 @@
         <v>118</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>10</v>
@@ -4242,7 +4262,7 @@
         <v>118</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>10</v>
@@ -4265,7 +4285,7 @@
         <v>118</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>10</v>
@@ -4288,7 +4308,7 @@
         <v>118</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>10</v>
@@ -4311,7 +4331,7 @@
         <v>118</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>10</v>
@@ -4334,7 +4354,7 @@
         <v>118</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>10</v>
@@ -4357,7 +4377,7 @@
         <v>118</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>10</v>
@@ -4380,7 +4400,7 @@
         <v>118</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>10</v>
@@ -4403,7 +4423,7 @@
         <v>118</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>10</v>
@@ -4426,7 +4446,7 @@
         <v>118</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>10</v>
@@ -4449,7 +4469,7 @@
         <v>118</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>10</v>
@@ -4472,7 +4492,7 @@
         <v>118</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>10</v>
@@ -4495,7 +4515,7 @@
         <v>118</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>10</v>
@@ -4518,7 +4538,7 @@
         <v>118</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>10</v>
@@ -4541,7 +4561,7 @@
         <v>118</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>10</v>
@@ -4564,7 +4584,7 @@
         <v>118</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>10</v>
@@ -4587,7 +4607,7 @@
         <v>118</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>10</v>
@@ -4610,7 +4630,7 @@
         <v>118</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>10</v>
@@ -4633,7 +4653,7 @@
         <v>118</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>10</v>
@@ -4656,7 +4676,7 @@
         <v>118</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>10</v>
@@ -4679,7 +4699,7 @@
         <v>118</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>10</v>
@@ -4702,7 +4722,7 @@
         <v>118</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>10</v>
@@ -4725,7 +4745,7 @@
         <v>118</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>10</v>
@@ -4748,7 +4768,7 @@
         <v>118</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>10</v>
@@ -4771,7 +4791,7 @@
         <v>118</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>10</v>
@@ -4794,7 +4814,7 @@
         <v>118</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>10</v>
@@ -4817,7 +4837,7 @@
         <v>118</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>16</v>
@@ -4840,7 +4860,7 @@
         <v>118</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>16</v>
@@ -4863,7 +4883,7 @@
         <v>118</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>16</v>
@@ -4886,7 +4906,7 @@
         <v>118</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>16</v>
@@ -4909,7 +4929,7 @@
         <v>118</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>16</v>
@@ -4932,7 +4952,7 @@
         <v>118</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>16</v>
@@ -4955,7 +4975,7 @@
         <v>118</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>16</v>
@@ -4978,7 +4998,7 @@
         <v>118</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>16</v>
@@ -5001,7 +5021,7 @@
         <v>118</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>145</v>
@@ -5024,7 +5044,7 @@
         <v>118</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>145</v>
@@ -5047,7 +5067,7 @@
         <v>118</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>145</v>
@@ -5070,7 +5090,7 @@
         <v>118</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>145</v>
@@ -5093,7 +5113,7 @@
         <v>118</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>145</v>
@@ -5116,7 +5136,7 @@
         <v>118</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>145</v>
@@ -5139,7 +5159,7 @@
         <v>118</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>145</v>
@@ -5162,7 +5182,7 @@
         <v>118</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>16</v>
@@ -5185,7 +5205,7 @@
         <v>118</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>16</v>
@@ -5208,7 +5228,7 @@
         <v>118</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>16</v>
@@ -5231,7 +5251,7 @@
         <v>118</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>145</v>
@@ -5254,7 +5274,7 @@
         <v>118</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>145</v>
@@ -5277,7 +5297,7 @@
         <v>118</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>145</v>
@@ -5300,7 +5320,7 @@
         <v>118</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>145</v>
@@ -5323,7 +5343,7 @@
         <v>118</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>145</v>
@@ -5346,7 +5366,7 @@
         <v>118</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>145</v>
@@ -5369,7 +5389,7 @@
         <v>118</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>145</v>
@@ -5392,7 +5412,7 @@
         <v>118</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>16</v>
@@ -5415,7 +5435,7 @@
         <v>118</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>16</v>
@@ -5438,7 +5458,7 @@
         <v>118</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>16</v>
@@ -5461,7 +5481,7 @@
         <v>118</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>16</v>
@@ -5484,7 +5504,7 @@
         <v>118</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>16</v>
@@ -5507,7 +5527,7 @@
         <v>118</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>16</v>
@@ -5530,7 +5550,7 @@
         <v>118</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>16</v>
@@ -5553,7 +5573,7 @@
         <v>118</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>16</v>
@@ -5576,7 +5596,7 @@
         <v>118</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>16</v>
@@ -5599,7 +5619,7 @@
         <v>118</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>16</v>
@@ -5622,7 +5642,7 @@
         <v>118</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>16</v>
@@ -5645,7 +5665,7 @@
         <v>118</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>16</v>
@@ -5668,7 +5688,7 @@
         <v>118</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>16</v>
@@ -5691,7 +5711,7 @@
         <v>118</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>16</v>
@@ -5714,7 +5734,7 @@
         <v>118</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>16</v>
@@ -5737,7 +5757,7 @@
         <v>118</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>16</v>
@@ -5760,7 +5780,7 @@
         <v>118</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>16</v>
@@ -5783,7 +5803,7 @@
         <v>118</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>16</v>
@@ -5806,7 +5826,7 @@
         <v>118</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>16</v>
@@ -5829,7 +5849,7 @@
         <v>118</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>16</v>
@@ -5852,7 +5872,7 @@
         <v>118</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>16</v>
@@ -5875,7 +5895,7 @@
         <v>118</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>16</v>
@@ -5898,7 +5918,7 @@
         <v>118</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>16</v>
@@ -5921,7 +5941,7 @@
         <v>118</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>16</v>
@@ -5944,7 +5964,7 @@
         <v>118</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>16</v>
@@ -5967,7 +5987,7 @@
         <v>118</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>16</v>
@@ -5990,7 +6010,7 @@
         <v>118</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>16</v>
@@ -6013,7 +6033,7 @@
         <v>118</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>16</v>
@@ -6036,7 +6056,7 @@
         <v>118</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>16</v>
@@ -6059,7 +6079,7 @@
         <v>118</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>16</v>
@@ -6082,7 +6102,7 @@
         <v>118</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>16</v>
@@ -6105,7 +6125,7 @@
         <v>118</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>16</v>
@@ -6128,7 +6148,7 @@
         <v>118</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>16</v>
@@ -6151,7 +6171,7 @@
         <v>118</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>145</v>
@@ -6174,7 +6194,7 @@
         <v>118</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>145</v>
@@ -6197,7 +6217,7 @@
         <v>118</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>145</v>
@@ -6220,7 +6240,7 @@
         <v>118</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>145</v>
@@ -6243,7 +6263,7 @@
         <v>118</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>145</v>
@@ -6266,7 +6286,7 @@
         <v>118</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>145</v>
@@ -6289,7 +6309,7 @@
         <v>118</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>16</v>
@@ -6312,7 +6332,7 @@
         <v>118</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>16</v>
@@ -6335,7 +6355,7 @@
         <v>118</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>16</v>
@@ -6358,7 +6378,7 @@
         <v>118</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>16</v>
@@ -6381,7 +6401,7 @@
         <v>118</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>16</v>
@@ -6404,7 +6424,7 @@
         <v>118</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>16</v>
@@ -6427,7 +6447,7 @@
         <v>118</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>16</v>
@@ -6450,7 +6470,7 @@
         <v>118</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>16</v>
@@ -6473,7 +6493,7 @@
         <v>118</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>16</v>
@@ -6496,7 +6516,7 @@
         <v>118</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>16</v>
@@ -6519,7 +6539,7 @@
         <v>118</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>16</v>
@@ -6542,7 +6562,7 @@
         <v>118</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>16</v>
@@ -6565,7 +6585,7 @@
         <v>118</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>16</v>
@@ -6588,7 +6608,7 @@
         <v>118</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>16</v>
@@ -6611,7 +6631,7 @@
         <v>118</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>16</v>
@@ -6634,7 +6654,7 @@
         <v>118</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>16</v>
@@ -6657,7 +6677,7 @@
         <v>118</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>16</v>
@@ -6680,7 +6700,7 @@
         <v>118</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>16</v>
@@ -6703,10 +6723,10 @@
         <v>118</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E242" s="1">
         <v>999</v>
@@ -6718,7 +6738,7 @@
         <v>999</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
@@ -6726,7 +6746,7 @@
         <v>148</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>119</v>
@@ -6749,7 +6769,7 @@
         <v>148</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>119</v>
@@ -6772,7 +6792,7 @@
         <v>148</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>119</v>
@@ -6795,7 +6815,7 @@
         <v>148</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>119</v>
@@ -6818,7 +6838,7 @@
         <v>148</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>119</v>
@@ -6841,7 +6861,7 @@
         <v>148</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>119</v>
@@ -6864,7 +6884,7 @@
         <v>148</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>119</v>
@@ -6887,7 +6907,7 @@
         <v>148</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>119</v>
@@ -6910,7 +6930,7 @@
         <v>148</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>119</v>
@@ -6933,7 +6953,7 @@
         <v>148</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>119</v>
@@ -6956,7 +6976,7 @@
         <v>148</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>119</v>
@@ -6979,7 +6999,7 @@
         <v>148</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>119</v>
@@ -6994,7 +7014,7 @@
         <v>999</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
@@ -7114,7 +7134,7 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>155</v>
@@ -7137,7 +7157,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>155</v>
@@ -7160,7 +7180,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>155</v>
@@ -7189,16 +7209,16 @@
         <v>160</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E263" s="1">
         <v>1</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I263" s="1">
         <v>1</v>
@@ -7215,16 +7235,16 @@
         <v>160</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E264" s="1">
         <v>2</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I264" s="1">
         <v>2</v>
@@ -7241,16 +7261,16 @@
         <v>160</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E265" s="1">
         <v>999</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I265" s="1">
         <v>999</v>
@@ -7290,7 +7310,7 @@
         <v>162</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>163</v>
@@ -7305,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
@@ -7316,7 +7336,7 @@
         <v>162</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>163</v>
@@ -7331,7 +7351,7 @@
         <v>2</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
@@ -7342,7 +7362,7 @@
         <v>162</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>163</v>
@@ -7357,7 +7377,7 @@
         <v>3</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
@@ -7368,7 +7388,7 @@
         <v>162</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>163</v>
@@ -7383,12 +7403,12 @@
         <v>999</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>164</v>
@@ -7411,7 +7431,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>164</v>
@@ -7434,7 +7454,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>164</v>
@@ -7457,7 +7477,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>164</v>
@@ -7480,7 +7500,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>164</v>
@@ -7503,7 +7523,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>164</v>
@@ -7526,7 +7546,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>164</v>
@@ -7549,7 +7569,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>164</v>
@@ -7572,7 +7592,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>164</v>
@@ -7595,7 +7615,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>164</v>
@@ -7618,7 +7638,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>164</v>
@@ -7641,7 +7661,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>164</v>
@@ -7664,7 +7684,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>164</v>
@@ -7687,7 +7707,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>164</v>
@@ -7710,753 +7730,805 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="E285" s="1">
-        <v>1</v>
-      </c>
-      <c r="G285" s="1" t="s">
-        <v>229</v>
+        <v>999</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="I285" s="1">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C286" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="D286" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E286" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I286" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E287" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I287" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E288" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I288" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E289" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I289" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E290" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I290" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E291" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I291" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E292" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I292" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E293" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I293" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E294" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I294" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E295" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I295" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E296" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I296" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E297" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I297" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E298" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I298" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E299" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I299" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E300" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I300" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E301" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I301" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E302" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I302" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E303" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I303" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E304" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I304" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E305" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I305" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E306" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I306" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E307" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I307" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E308" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I308" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E309" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I309" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E310" s="1">
+        <v>30</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I310" s="1">
+        <v>30</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E311" s="1">
         <v>31</v>
       </c>
-      <c r="G310" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H310" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I310" s="1">
+      <c r="G311" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I311" s="1">
         <v>31</v>
       </c>
-      <c r="J310" s="1" t="s">
+      <c r="J311" s="1" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E312" s="1">
+        <v>32</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I312" s="1">
+        <v>32</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
